--- a/Players/Players.xlsx
+++ b/Players/Players.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domagoj/Documents/Rac - programiranje/nogomet_savica/Players/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:18001_{E6D31BEC-73F1-5941-A39E-6FE54F027760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:18001_{B8857D56-5E4E-6249-8B8A-220EF04DB078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17240" xr2:uid="{ABFDD544-7C25-7A46-8317-D18AA2401801}"/>
+    <workbookView xWindow="2040" yWindow="940" windowWidth="28040" windowHeight="17180" xr2:uid="{ABFDD544-7C25-7A46-8317-D18AA2401801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Ime</t>
   </si>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,6 +547,9 @@
       <c r="B6">
         <v>58</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -555,6 +558,9 @@
       <c r="B7">
         <v>56</v>
       </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -563,6 +569,9 @@
       <c r="B8">
         <v>84</v>
       </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -571,6 +580,9 @@
       <c r="B9">
         <v>77</v>
       </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -579,6 +591,9 @@
       <c r="B10">
         <v>89</v>
       </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -587,6 +602,9 @@
       <c r="B11">
         <v>61</v>
       </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -595,6 +613,9 @@
       <c r="B12">
         <v>74</v>
       </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -603,6 +624,9 @@
       <c r="B13">
         <v>88</v>
       </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -611,6 +635,9 @@
       <c r="B14">
         <v>77</v>
       </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -619,6 +646,9 @@
       <c r="B15">
         <v>75</v>
       </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -627,8 +657,11 @@
       <c r="B16">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -636,79 +669,106 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
